--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_beg.xlsx
@@ -984,11 +984,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  But we all count ourselves as Tiacauh. Means "one valiant in war" in our language.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Also, not that I think you’re gonna need it, but you might like to know we call this place Acahualla. “Land where the forest overgrows.”
+    <t xml:space="preserve">[name="Gavial"]  But we all count ourselves as Tiacauh. Means 'one valiant in war' in our language.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Also, not that I think you’re gonna need it, but you might like to know we call this place Acahualla. 'Land where the forest overgrows.'
 </t>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Her tribe’s called the "Inam Committee". The people in it act kind of weird. None of them really like fighting people, but they all like doing business.
+    <t xml:space="preserve">[name="Tomimi"]  Her tribe’s called the 'Inam Committee'. The people in it act kind of weird. None of them really like fighting people, but they all like doing business.
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Wouldn’t have thought she’d be bossing a clan now, though. "Eunectes" has a nice ring to it!
+    <t xml:space="preserve">[name="Gavial"]  Wouldn’t have thought she’d be bossing a clan now, though. 'Eunectes' has a nice ring to it!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_02_beg.xlsx
@@ -908,15 +908,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Rainforest’s same as ever, huh.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  It’s been a really long time, hasn’t it, Gavial?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Never liked this place. Air’s stifling, and the ground gives too easy. Can’t place a single firm step.
+    <t xml:space="preserve">[name="Gavial"]  Rainforest's same as ever, huh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  It's been a really long time, hasn't it, Gavial?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Never liked this place. Air's stifling, and the ground gives too easy. Can't place a single firm step.
 </t>
   </si>
   <si>
@@ -924,15 +924,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  That so? ...Hey, Doctor, looks like you’re up. How’d you sleep last night?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Decent.;......;I’ve never felt more alive.",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  You adapt fast, huh, Doctor? Hell, I thought you wouldn’t be able to stand roughing it out here.
+    <t xml:space="preserve">[name="Gavial"]  That so? ...Hey, Doctor, looks like you're up. How'd you sleep last night?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Decent.;......;I've never felt more alive.",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  You adapt fast, huh, Doctor? Hell, I thought you wouldn't be able to stand roughing it out here.
 </t>
   </si>
   <si>
@@ -940,27 +940,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah, I’d believe you if you weren’t trying to rub your temples.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Didn’t I tell you, Doctor? Gotta be ready. It’s not about to get any easier.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Here. Scrounged up what I could find nearby to make some soup. Go on, it’ll wake you up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, speaking of which. Never realized it until I went looking, but actually, there’s a hell of a lot of medicinal plants that grow around this rainforest.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...Gavial’s actually taking care of people...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  G... Gavial, I didn’t sleep good either...
+    <t xml:space="preserve">[name="Gavial"]  Yeah, I'd believe you if you weren't trying to rub your temples.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Didn't I tell you, Doctor? Gotta be ready. It's not about to get any easier.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Here. Scrounged up what I could find nearby to make some soup. Go on, it'll wake you up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hey, speaking of which. Never realized it until I went looking, but actually, there's a hell of a lot of medicinal plants that grow around this rainforest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  ...Gavial's actually taking care of people...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  G... Gavial, I didn't sleep good either...
 </t>
   </si>
   <si>
@@ -968,19 +968,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Archosauria... *wail* Gavial doesn’t remember our original name...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hmm? Oh, crap, I did forget. I mean Tiacauh, don’t I.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Damn, I don’t think I’ve used that word at all since I left. Doctor, you make a note to yourself. We don’t divvy ourselves up by race here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I mean, from that perspective, uh, lemme think... I’m an Archosauria, Zumama’s a Phidia, and there’s also Liberi... yeah, that’s your three, more or less.
+    <t xml:space="preserve">[name="Tomimi"]  Archosauria... *wail* Gavial doesn't remember our original name...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hmm? Oh, crap, I did forget. I mean Tiacauh, don't I.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Damn, I don't think I've used that word at all since I left. Doctor, you make a note to yourself. We don't divvy ourselves up by race here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I mean, from that perspective, uh, lemme think... I'm an Archosauria, Zumama's a Phidia, and there's also Liberi... yeah, that's your three, more or less.
 </t>
   </si>
   <si>
@@ -988,11 +988,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Also, not that I think you’re gonna need it, but you might like to know we call this place Acahualla. 'Land where the forest overgrows.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Alright, enough bawling your eyes out. Get your people in gear and let’s move.
+    <t xml:space="preserve">[name="Gavial"]  Also, not that I think you're gonna need it, but you might like to know we call this place Acahualla. 'Land where the forest overgrows.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Alright, enough bawling your eyes out. Get your people in gear and let's move.
 </t>
   </si>
   <si>
@@ -1008,7 +1008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Ah, I know that! Since you left, Gavial, I’ve been learning about the outside world!
+    <t xml:space="preserve">[name="Tomimi"]  Ah, I know that! Since you left, Gavial, I've been learning about the outside world!
 </t>
   </si>
   <si>
@@ -1020,27 +1020,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I don’t really get fashion. Is she right, Doctor?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I’ve seen it in magazines.;......;I have no idea.",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Yeah, so the Doctor’s seen it too!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Gavial, your friend doesn’t seem like a fashion expert either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Haha. There’s something even you don’t know, huh.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, yeah, Tomimi, how about you introduce the Doctor to our place? I’ve been away for forever. I don’t know what’s changed.
+    <t xml:space="preserve">[name="Gavial"]  I don't really get fashion. Is she right, Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I've seen it in magazines.;......;I have no idea.",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Yeah, so the Doctor's seen it too!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Gavial, your friend doesn't seem like a fashion expert either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Haha. There's something even you don't know, huh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh, yeah, Tomimi, how about you introduce the Doctor to our place? I've been away for forever. I don't know what's changed.
 </t>
   </si>
   <si>
@@ -1048,11 +1048,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Okay, let me think. What should I tell an outsider...? Right, let’s start with the tribes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Look at this map. Here’s where Gavial landed, and here’s the path we took.
+    <t xml:space="preserve">[name="Tomimi"]  Okay, let me think. What should I tell an outsider...? Right, let's start with the tribes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Look at this map. Here's where Gavial landed, and here's the path we took.
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Sounds like nothing’s really changed, then. 
+    <t xml:space="preserve">[name="Gavial"]  Sounds like nothing's really changed, then. 
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  So now we’ve all been stuck fighting each other.
+    <t xml:space="preserve">[name="Tomimi"]  So now we've all been stuck fighting each other.
 </t>
   </si>
   <si>
@@ -1100,15 +1100,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Wuh? That part’s actually normal for us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  My dad said Great Chief Juan was one of the longest Great Chiefs ever. We’d usually get a new one every two or three years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Whenever we lose a Great Chief’s, we do the ceremony to pick a new one.
+    <t xml:space="preserve">[name="Tomimi"]  Wuh? That part's actually normal for us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  My dad said Great Chief Juan was one of the longest Great Chiefs ever. We'd usually get a new one every two or three years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Whenever we lose a Great Chief's, we do the ceremony to pick a new one.
 </t>
   </si>
   <si>
@@ -1132,7 +1132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Anyway, that’s another story. Any especially strong tribes running around?
+    <t xml:space="preserve">[name="Gavial"]  Anyway, that's another story. Any especially strong tribes running around?
 </t>
   </si>
   <si>
@@ -1152,15 +1152,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  That tribe always liked making weird tools and weapon things. They’ve absorbed a lot of the small tribes that surrounded them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Second is Kemar’s Flint tribe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  The rainforest Tiacauh don’t live quite the same as the rest of us. They’re a lot more scattered. Normally, they don’t even communicate with us.
+    <t xml:space="preserve">[name="Tomimi"]  That tribe always liked making weird tools and weapon things. They've absorbed a lot of the small tribes that surrounded them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Second is Kemar's Flint tribe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  The rainforest Tiacauh don't live quite the same as the rest of us. They're a lot more scattered. Normally, they don't even communicate with us.
 </t>
   </si>
   <si>
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Kemar’s is one of them now.
+    <t xml:space="preserve">[name="Tomimi"]  Kemar's is one of them now.
 </t>
   </si>
   <si>
@@ -1176,31 +1176,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  There’s one more tribe that’s pretty notable. I think you recognize them too, Gavial. Inam’s tribe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Her tribe’s called the 'Inam Committee'. The people in it act kind of weird. None of them really like fighting people, but they all like doing business.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  There are a lot of them too. Don’t underestimate them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I can picture it right now. Zumama setting her tribe up next to a mine. Yeah, ever since way back, she’s loved making those weapons of hers or whatever.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Wouldn’t have thought she’d be bossing a clan now, though. 'Eunectes' has a nice ring to it!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Yep. Zumama’s Eunectes tribe is the strongest one too, now, and everyone thinks she’s gonna be the next Chief.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Not surprised. Kid’s been pretty capable for a long while.
+    <t xml:space="preserve">[name="Tomimi"]  There's one more tribe that's pretty notable. I think you recognize them too, Gavial. Inam's tribe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Her tribe's called the 'Inam Committee.' The people in it act kind of weird. None of them really like fighting people, but they all like doing business.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  There are a lot of them too. Don't underestimate them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I can picture it right now. Zumama setting her tribe up next to a mine. Yeah, ever since way back, she's loved making those weapons of hers or whatever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Wouldn't have thought she'd be bossing a clan now, though. 'Eunectes' has a nice ring to it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Yep. Zumama's Eunectes tribe is the strongest one too, now, and everyone thinks she's gonna be the next Chief.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Not surprised. Kid's been pretty capable for a long while.
 </t>
   </si>
   <si>
@@ -1208,7 +1208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Nope. There’s stuff on the outside I’ve gotta do.
+    <t xml:space="preserve">[name="Gavial"]  Nope. There's stuff on the outside I've gotta do.
 </t>
   </si>
   <si>
@@ -1228,7 +1228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, there’ll be a day when I come back here. But it’s not today.
+    <t xml:space="preserve">[name="Gavial"]  Hey, there'll be a day when I come back here. But it's not today.
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Then I’m looking forward to the show!
+    <t xml:space="preserve">[name="Gavial"]  Then I'm looking forward to the show!
 </t>
   </si>
   <si>
@@ -1252,7 +1252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Over that way. Let’s go see.
+    <t xml:space="preserve">[name="Gavial"]  Over that way. Let's go see.
 </t>
   </si>
   <si>
@@ -1264,19 +1264,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Keh, you’ve got backbone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, hey, they’re fighting. Doctor, we can leave ‘em. Let’s just go. This happens all the time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  You’re done for, Thin-Tails. I’m gonna make you admit Thick-Tails are where it’s at!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Yeah, in your dreams! Like I’d ever give in!
+    <t xml:space="preserve">[name="Archosauria A"]  Keh, you've got backbone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh, hey, they're fighting. Doctor, we can leave 'em. Let's just go. This happens all the time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  You're done for, Thin-Tails. I'm gonna make you admit Thick-Tails are where it's at!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  Yeah, in your dreams! Like I'd ever give in!
 </t>
   </si>
   <si>
@@ -1284,11 +1284,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey! What’s-your-face over there. What did you just say?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Who’re you? Don’t tell me you’re a Thin-Tails too?!
+    <t xml:space="preserve">[name="Gavial"]  Hey! What's-your-face over there. What did you just say?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  Who're you? Don't tell me you're a Thin-Tails too?!
 </t>
   </si>
   <si>
@@ -1296,11 +1296,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  What? Obviously! Take a look at mine! Sturdy! Strong! Plump and plush! What’s better than a nice thick tail like this, huh?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Tch. Whelp, can’t pretend I didn’t hear that shit!
+    <t xml:space="preserve">[name="Archosauria A"]  What? Obviously! Take a look at mine! Sturdy! Strong! Plump and plush! What's better than a nice thick tail like this, huh?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Tch. Whelp, can't pretend I didn't hear that shit!
 </t>
   </si>
   <si>
@@ -1312,11 +1312,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Huh? You kidding? You can’t even see a tail like that behind your ass!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah, shout out to yours! I bet your ass loves when it can’t sit down ‘cause your tail’s so fat!
+    <t xml:space="preserve">[name="Archosauria A"]  Huh? You kidding? You can't even see a tail like that behind your ass!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Yeah, shout out to yours! I bet your ass loves when it can't sit down 'cause your tail's so fat!
 </t>
   </si>
   <si>
@@ -1324,11 +1324,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Ah. Gavial’s arguing with that one there about thin versus thick tails.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  It’s a pretty common topic for us. You might say the tail is an Archosauria’s greatest pride. People compare them. Whole tribes have even formed on how thick or thin their tails are.
+    <t xml:space="preserve">[name="Tomimi"]  Ah. Gavial's arguing with that one there about thin versus thick tails.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  It's a pretty common topic for us. You might say the tail is an Archosauria's greatest pride. People compare them. Whole tribes have even formed on how thick or thin their tails are.
 </t>
   </si>
   <si>
@@ -1340,11 +1340,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Today’s the day! We will make it known that thick tails reign supreme!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Oh. That’s a lot of people. Um, Doctor, I’m going to help Gavial.
+    <t xml:space="preserve">[name="Archosauria A"]  Today's the day! We will make it known that thick tails reign supreme!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Oh. That's a lot of people. Um, Doctor, I'm going to help Gavial.
 </t>
   </si>
   <si>
